--- a/biology/Histoire de la zoologie et de la botanique/Hirotsugu_Ono/Hirotsugu_Ono.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hirotsugu_Ono/Hirotsugu_Ono.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirotsugu Ono (小野 展嗣, Ono Hirotsugu?) est un arachnologiste japonais. Il est affilié au Musée national de la nature et des sciences de Tokyo et est diplômé de l'université de Kyōto.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Larinia onoi Tanikawa, 1989
 Cyclosa onoi Tanikawa, 1992
@@ -552,7 +566,9 @@
           <t>Quelques Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acantheis nipponicus Ono, 2008
 Adenodictyna Ono, 2008
